--- a/docs/20190923 Energy setpoint calculator.xlsx
+++ b/docs/20190923 Energy setpoint calculator.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\devs\ws\z-components\devices\m90e26\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF9F24B9-3017-437D-83C0-02B1DBFE3CC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1805CF-2855-484B-A431-2A772595AF63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1080" windowWidth="21030" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55605" yWindow="0" windowWidth="15345" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="GL">Sheet1!$B$24</definedName>
@@ -242,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t>Voltage ratio</t>
   </si>
@@ -854,6 +852,9 @@
   </si>
   <si>
     <t>Impulse converter</t>
+  </si>
+  <si>
+    <t>Actual Current</t>
   </si>
 </sst>
 </file>
@@ -3382,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3393,6 +3394,9 @@
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2" customWidth="1"/>
+    <col min="15" max="15" width="1.28515625" customWidth="1"/>
+    <col min="16" max="16" width="1.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18">
@@ -3726,7 +3730,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="12">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -3740,7 +3744,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -3769,7 +3773,7 @@
       </c>
       <c r="B25" s="13">
         <f>UN*Vratio*1000</f>
-        <v>298.95366218236177</v>
+        <v>236.17339312406577</v>
       </c>
       <c r="C25" t="s">
         <v>90</v>
@@ -3784,7 +3788,7 @@
       </c>
       <c r="B26" s="14">
         <f>IB*Iratio*1000</f>
-        <v>174.75728155339806</v>
+        <v>145.63106796116503</v>
       </c>
       <c r="C26" t="s">
         <v>90</v>
@@ -3999,7 +4003,7 @@
         <v>68</v>
       </c>
       <c r="B60" s="19">
-        <v>203.9</v>
+        <v>235.5</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>3</v>
@@ -4012,7 +4016,7 @@
       <c r="G60" s="18"/>
       <c r="K60">
         <f>B60/B62</f>
-        <v>7.7234848484848484E-3</v>
+        <v>8.9204545454545457E-3</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4020,7 +4024,7 @@
         <v>69</v>
       </c>
       <c r="B61" s="19">
-        <v>243.1</v>
+        <v>236.3</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>3</v>
@@ -4033,11 +4037,11 @@
       <c r="G61" s="18"/>
       <c r="K61">
         <f>B61*Vratio</f>
-        <v>0.24225211758844045</v>
+        <v>0.23547583457897359</v>
       </c>
       <c r="L61">
         <f>K61/K60</f>
-        <v>31.36564935917032</v>
+        <v>26.397291010126974</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="18">
@@ -4079,7 +4083,7 @@
       </c>
       <c r="B66" s="11">
         <f>INT(B62*B61/B60)</f>
-        <v>31475</v>
+        <v>26489</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4088,7 +4092,7 @@
       </c>
       <c r="B67" s="8" t="str">
         <f>"0x"&amp;DEC2HEX(B66,4)</f>
-        <v>0x7AF3</v>
+        <v>0x6779</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4096,7 +4100,7 @@
         <v>74</v>
       </c>
       <c r="B69" s="19">
-        <v>19.920000000000002</v>
+        <v>19.3</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>4</v>
@@ -4113,13 +4117,13 @@
         <v>75</v>
       </c>
       <c r="B70" s="19">
-        <v>7.74</v>
+        <v>9.9</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="18"/>
@@ -4164,7 +4168,7 @@
       </c>
       <c r="B75" s="11">
         <f>INT(B71*B70/B69)</f>
-        <v>12142</v>
+        <v>16030</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4173,7 +4177,7 @@
       </c>
       <c r="B76" s="8" t="str">
         <f>"0x"&amp;DEC2HEX(B75,4)</f>
-        <v>0x2F6E</v>
+        <v>0x3E9E</v>
       </c>
       <c r="E76" t="s">
         <v>91</v>
@@ -4183,13 +4187,13 @@
       </c>
       <c r="H76">
         <f>INT(3*B75/2^16*2^8)</f>
-        <v>142</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="H77" t="str">
         <f>DEC2HEX(H76)</f>
-        <v>8E</v>
+        <v>BB</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4239,7 +4243,7 @@
       </c>
       <c r="B88" s="16">
         <f>B66</f>
-        <v>31475</v>
+        <v>26489</v>
       </c>
       <c r="C88" t="s">
         <v>86</v>
@@ -4262,7 +4266,7 @@
       </c>
       <c r="B94" s="11">
         <f>INT(100*B87*SQRT(2)*B89/(4*B88/32768))</f>
-        <v>7957</v>
+        <v>9455</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4271,7 +4275,7 @@
       </c>
       <c r="B95" s="8" t="str">
         <f>"0x"&amp;DEC2HEX(B94,4)</f>
-        <v>0x1F15</v>
+        <v>0x24EF</v>
       </c>
     </row>
   </sheetData>
@@ -4316,28 +4320,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>